--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt2-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt2-Fzd3.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.129292</v>
+        <v>0.196431</v>
       </c>
       <c r="N2">
-        <v>0.387876</v>
+        <v>0.589293</v>
       </c>
       <c r="O2">
-        <v>0.06615700391713267</v>
+        <v>0.09717285149889213</v>
       </c>
       <c r="P2">
-        <v>0.06615700391713268</v>
+        <v>0.09717285149889213</v>
       </c>
       <c r="Q2">
-        <v>0.1077034683</v>
+        <v>0.163631933775</v>
       </c>
       <c r="R2">
-        <v>0.9693312147000002</v>
+        <v>1.472687403975</v>
       </c>
       <c r="S2">
-        <v>0.06615700391713267</v>
+        <v>0.09717285149889213</v>
       </c>
       <c r="T2">
-        <v>0.06615700391713268</v>
+        <v>0.09717285149889213</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.4307096666666666</v>
+        <v>0.4307096666666667</v>
       </c>
       <c r="N3">
         <v>1.292129</v>
       </c>
       <c r="O3">
-        <v>0.2203884316493949</v>
+        <v>0.2130686423127578</v>
       </c>
       <c r="P3">
-        <v>0.220388431649395</v>
+        <v>0.2130686423127578</v>
       </c>
       <c r="Q3">
-        <v>0.358791920075</v>
+        <v>0.3587919200750001</v>
       </c>
       <c r="R3">
-        <v>3.229127280675</v>
+        <v>3.229127280675001</v>
       </c>
       <c r="S3">
-        <v>0.2203884316493949</v>
+        <v>0.2130686423127578</v>
       </c>
       <c r="T3">
-        <v>0.220388431649395</v>
+        <v>0.2130686423127578</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>4.182957</v>
       </c>
       <c r="O4">
-        <v>0.7134545644334723</v>
+        <v>0.68975850618835</v>
       </c>
       <c r="P4">
-        <v>0.7134545644334724</v>
+        <v>0.68975850618835</v>
       </c>
       <c r="Q4">
         <v>1.161502584975</v>
@@ -694,10 +694,10 @@
         <v>10.453523264775</v>
       </c>
       <c r="S4">
-        <v>0.7134545644334723</v>
+        <v>0.68975850618835</v>
       </c>
       <c r="T4">
-        <v>0.7134545644334724</v>
+        <v>0.68975850618835</v>
       </c>
     </row>
   </sheetData>
